--- a/Code/Results/Cases/Case_2_124/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_124/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.513800748757205</v>
+        <v>0.8241867217947743</v>
       </c>
       <c r="C2">
-        <v>0.6137626971690224</v>
+        <v>0.1998266203563048</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1984712920054292</v>
+        <v>0.1136866213164893</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.8076165890195597</v>
+        <v>0.5498833845211664</v>
       </c>
       <c r="H2">
-        <v>0.4799245741450164</v>
+        <v>0.6254872185886313</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.977380288987348</v>
+        <v>0.3424943153330489</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.175957925527257</v>
+        <v>0.7251062635903622</v>
       </c>
       <c r="C3">
-        <v>0.5373572764834478</v>
+        <v>0.1760536258992431</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1730029033446883</v>
+        <v>0.1081556909239438</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.7217614721263175</v>
+        <v>0.5359160217344936</v>
       </c>
       <c r="H3">
-        <v>0.4504504043648154</v>
+        <v>0.6255920788342166</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.8429348812356778</v>
+        <v>0.305373343264236</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.970257647515723</v>
+        <v>0.6643145236133989</v>
       </c>
       <c r="C4">
-        <v>0.4907229779466888</v>
+        <v>0.1613864964857328</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1578671064456998</v>
+        <v>0.1048574224325662</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.6724402963525762</v>
+        <v>0.52804632916191</v>
       </c>
       <c r="H4">
-        <v>0.4341894002774183</v>
+        <v>0.6262137786452655</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7615103395152616</v>
+        <v>0.28268572673813</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.886787899099545</v>
+        <v>0.6395524364540961</v>
       </c>
       <c r="C5">
-        <v>0.4717714304976255</v>
+        <v>0.1553918225393431</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.151810451822854</v>
+        <v>0.1035376173745632</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.6531110127368862</v>
+        <v>0.5250149041233954</v>
       </c>
       <c r="H5">
-        <v>0.4279858024310386</v>
+        <v>0.6266064251323371</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7285682077357336</v>
+        <v>0.2734662246114112</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.872946975861538</v>
+        <v>0.6354413771467193</v>
       </c>
       <c r="C6">
-        <v>0.4686272085300232</v>
+        <v>0.1543953428686109</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1508110597862355</v>
+        <v>0.1033199212597182</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.649945545428011</v>
+        <v>0.5245220797697243</v>
       </c>
       <c r="H6">
-        <v>0.4269801639946849</v>
+        <v>0.6266800124445098</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7231114131433998</v>
+        <v>0.2719368832624767</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.969130612012663</v>
+        <v>0.663980528770054</v>
       </c>
       <c r="C7">
-        <v>0.4904672013745142</v>
+        <v>0.1613057218643235</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1577849923859631</v>
+        <v>0.1048395252383116</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.6721766053942559</v>
+        <v>0.5280047383007513</v>
       </c>
       <c r="H7">
-        <v>0.4341040732037129</v>
+        <v>0.6262185111219623</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7610651580156613</v>
+        <v>0.2825612851066523</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.396900511962826</v>
+        <v>0.7900145717982809</v>
       </c>
       <c r="C8">
-        <v>0.5873489473166273</v>
+        <v>0.191644301228024</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1895762384260493</v>
+        <v>0.1117590789784515</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813478</v>
       </c>
       <c r="G8">
-        <v>0.7772565375822467</v>
+        <v>0.5449195876979758</v>
       </c>
       <c r="H8">
-        <v>0.4693563770941722</v>
+        <v>0.625407194435553</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.9307622123639874</v>
+        <v>0.3296729537806797</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.253658600503229</v>
+        <v>1.037532426757934</v>
       </c>
       <c r="C9">
-        <v>0.7804508271919417</v>
+        <v>0.2505823831147325</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2566490928085585</v>
+        <v>0.1261187909381078</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>1.014430224279735</v>
+        <v>0.5837894590630697</v>
       </c>
       <c r="H9">
-        <v>0.554989023960303</v>
+        <v>0.6282770915465647</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.274679083821553</v>
+        <v>0.4229167418350102</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.900509104342291</v>
+        <v>1.219648908285251</v>
       </c>
       <c r="C10">
-        <v>0.9256525982328299</v>
+        <v>0.2935540916710124</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3099868634479961</v>
+        <v>0.1371726235063448</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>1.214159281992835</v>
+        <v>0.6159571862790756</v>
       </c>
       <c r="H10">
-        <v>0.6309745546788008</v>
+        <v>0.6331600600547347</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.5376207726855</v>
+        <v>0.4919898512155072</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.200222816993062</v>
+        <v>1.30256680139621</v>
       </c>
       <c r="C11">
-        <v>0.9928033090272663</v>
+        <v>0.3130336421376683</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3354388576778717</v>
+        <v>0.1423155000526748</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>1.312229837141786</v>
+        <v>0.6314043384397792</v>
       </c>
       <c r="H11">
-        <v>0.66915616229889</v>
+        <v>0.6359958531092218</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.660367794811137</v>
+        <v>0.5235461676762583</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.314661053380348</v>
+        <v>1.333976540296533</v>
       </c>
       <c r="C12">
-        <v>1.018425189374085</v>
+        <v>0.3204002944629565</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.3452774685508473</v>
+        <v>0.1442798002885368</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>1.350565589266949</v>
+        <v>0.6373731307708681</v>
       </c>
       <c r="H12">
-        <v>0.6842093394901951</v>
+        <v>0.6371590139954151</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.70738609388232</v>
+        <v>0.5355157631142191</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.28997003944653</v>
+        <v>1.327211419844843</v>
       </c>
       <c r="C13">
-        <v>1.0128978408151</v>
+        <v>0.318814190909336</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.3431491143475398</v>
+        <v>0.1438560001039306</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>1.342253190636711</v>
+        <v>0.6360823030601921</v>
       </c>
       <c r="H13">
-        <v>0.6809396240194587</v>
+        <v>0.6369045194509226</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.697234496965194</v>
+        <v>0.5329370025308435</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.209617836250061</v>
+        <v>1.305150687452112</v>
       </c>
       <c r="C14">
-        <v>0.9949071403402172</v>
+        <v>0.3136398979400212</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.3362440834846723</v>
+        <v>0.142476765414898</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>1.315358720228005</v>
+        <v>0.6318929908645998</v>
       </c>
       <c r="H14">
-        <v>0.670382215096339</v>
+        <v>0.6360897517846809</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.664224728232981</v>
+        <v>0.5245305114288925</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.160527670499846</v>
+        <v>1.291639228541897</v>
       </c>
       <c r="C15">
-        <v>0.9839136357242353</v>
+        <v>0.3104692145566901</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.3320416122347396</v>
+        <v>0.141634143210986</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>1.299046324484607</v>
+        <v>0.6293425184433943</v>
       </c>
       <c r="H15">
-        <v>0.663995324129445</v>
+        <v>0.6356023415935397</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.644077934639128</v>
+        <v>0.5193839013291495</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.881045009041486</v>
+        <v>1.214231493830766</v>
       </c>
       <c r="C16">
-        <v>0.921289157448939</v>
+        <v>0.2922796803521521</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3083498676590821</v>
+        <v>0.1368388568797911</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>1.20790859746262</v>
+        <v>0.6149642486729761</v>
       </c>
       <c r="H16">
-        <v>0.6285582155066152</v>
+        <v>0.6329871801982847</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.52966911915243</v>
+        <v>0.4899303268477979</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.711095752845949</v>
+        <v>1.166762943156016</v>
       </c>
       <c r="C17">
-        <v>0.8831760113996268</v>
+        <v>0.2811034576815246</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2941399357416685</v>
+        <v>0.1339266603622633</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337215605</v>
       </c>
       <c r="G17">
-        <v>1.153954254502196</v>
+        <v>0.6063537046602221</v>
       </c>
       <c r="H17">
-        <v>0.6077948579446115</v>
+        <v>0.6315409222534925</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.460343307714467</v>
+        <v>0.4718963747417035</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.613848582393246</v>
+        <v>1.139467072265404</v>
       </c>
       <c r="C18">
-        <v>0.8613552682177783</v>
+        <v>0.2746687412250992</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2860766190011006</v>
+        <v>0.1322623918047938</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>1.123589228411845</v>
+        <v>0.6014776196077776</v>
       </c>
       <c r="H18">
-        <v>0.5961876116265614</v>
+        <v>0.6307668565822979</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.420758095456023</v>
+        <v>0.4615363593519817</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.581004281119249</v>
+        <v>1.130226320478641</v>
       </c>
       <c r="C19">
-        <v>0.8539834688190524</v>
+        <v>0.2724889487816426</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2833645500218012</v>
+        <v>0.1317007347817096</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.6191636801734006</v>
       </c>
       <c r="G19">
-        <v>1.113418316951339</v>
+        <v>0.599839726582502</v>
       </c>
       <c r="H19">
-        <v>0.5923130626639477</v>
+        <v>0.6305146669944577</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.407402446862861</v>
+        <v>0.4580307901299108</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.729133985624628</v>
+        <v>1.171815348291204</v>
       </c>
       <c r="C20">
-        <v>0.8872225328504726</v>
+        <v>0.2822938529699002</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2956410355618644</v>
+        <v>0.1342355535629309</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>1.159627540086149</v>
+        <v>0.6072623809002664</v>
       </c>
       <c r="H20">
-        <v>0.6099699414100428</v>
+        <v>0.6316888917013728</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.467692644422655</v>
+        <v>0.4738148079359945</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.233192263858314</v>
+        <v>1.311630172103492</v>
       </c>
       <c r="C21">
-        <v>1.00018588992009</v>
+        <v>0.3151599798203222</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.3382665604217792</v>
+        <v>0.1428814212061624</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723492197</v>
       </c>
       <c r="G21">
-        <v>1.323224356022052</v>
+        <v>0.6331202378749765</v>
       </c>
       <c r="H21">
-        <v>0.6734663983939413</v>
+        <v>0.6363266374823127</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.673905188353359</v>
+        <v>0.5269991570538082</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.56821007956205</v>
+        <v>1.403068725980802</v>
       </c>
       <c r="C22">
-        <v>1.075161216950789</v>
+        <v>0.3365826078656085</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.367310319802904</v>
+        <v>0.1486301096337641</v>
       </c>
       <c r="F22">
-        <v>2.667416158031997</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>1.437221643707545</v>
+        <v>0.6507162138709646</v>
       </c>
       <c r="H22">
-        <v>0.7184732135022784</v>
+        <v>0.6398786661339102</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.811853872503903</v>
+        <v>0.5618744782308767</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.388835677877523</v>
+        <v>1.354260564600736</v>
       </c>
       <c r="C23">
-        <v>1.035027445712529</v>
+        <v>0.3251541812781227</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.3516897364493801</v>
+        <v>0.1455528326649826</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307915566</v>
       </c>
       <c r="G23">
-        <v>1.375672426820387</v>
+        <v>0.6412604452479229</v>
       </c>
       <c r="H23">
-        <v>0.6941038291629695</v>
+        <v>0.6379348980609052</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.73790578521681</v>
+        <v>0.543250039858421</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.720977482840794</v>
+        <v>1.16953117329308</v>
       </c>
       <c r="C24">
-        <v>0.8853928196393781</v>
+        <v>0.2817557044122339</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2949620598435558</v>
+        <v>0.1340958718517982</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902313</v>
       </c>
       <c r="G24">
-        <v>1.157060622388911</v>
+        <v>0.6068513373240592</v>
       </c>
       <c r="H24">
-        <v>0.6089855641792496</v>
+        <v>0.6316218159643086</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.464369171168912</v>
+        <v>0.4729474595923477</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.019341772746429</v>
+        <v>0.9705289090056795</v>
       </c>
       <c r="C25">
-        <v>0.7277406099587722</v>
+        <v>0.2346967009590628</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2378847743633514</v>
+        <v>0.1221472341768859</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347308</v>
       </c>
       <c r="G25">
-        <v>0.9463097814973906</v>
+        <v>0.5726499605915194</v>
       </c>
       <c r="H25">
-        <v>0.5297660824970194</v>
+        <v>0.6270174702410714</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.180113307575049</v>
+        <v>0.3975954900624856</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_124/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_124/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8241867217947743</v>
+        <v>2.513800748757149</v>
       </c>
       <c r="C2">
-        <v>0.1998266203563048</v>
+        <v>0.6137626971687951</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1136866213164893</v>
+        <v>0.1984712920054079</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.5498833845211664</v>
+        <v>0.8076165890195739</v>
       </c>
       <c r="H2">
-        <v>0.6254872185886313</v>
+        <v>0.4799245741450164</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3424943153330489</v>
+        <v>0.9773802889873267</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7251062635903622</v>
+        <v>2.1759579255272</v>
       </c>
       <c r="C3">
-        <v>0.1760536258992431</v>
+        <v>0.5373572764831636</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1081556909239438</v>
+        <v>0.1730029033447309</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.5359160217344936</v>
+        <v>0.7217614721263317</v>
       </c>
       <c r="H3">
-        <v>0.6255920788342166</v>
+        <v>0.4504504043649291</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.305373343264236</v>
+        <v>0.8429348812356778</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6643145236133989</v>
+        <v>1.970257647515638</v>
       </c>
       <c r="C4">
-        <v>0.1613864964857328</v>
+        <v>0.4907229779464899</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1048574224325662</v>
+        <v>0.1578671064457069</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.52804632916191</v>
+        <v>0.6724402963526188</v>
       </c>
       <c r="H4">
-        <v>0.6262137786452655</v>
+        <v>0.4341894002774183</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.28268572673813</v>
+        <v>0.7615103395152687</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6395524364540961</v>
+        <v>1.886787899099517</v>
       </c>
       <c r="C5">
-        <v>0.1553918225393431</v>
+        <v>0.4717714304973413</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1035376173745632</v>
+        <v>0.1518104518228398</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.5250149041233954</v>
+        <v>0.6531110127369288</v>
       </c>
       <c r="H5">
-        <v>0.6266064251323371</v>
+        <v>0.4279858024310386</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2734662246114112</v>
+        <v>0.7285682077357478</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6354413771467193</v>
+        <v>1.872946975861538</v>
       </c>
       <c r="C6">
-        <v>0.1543953428686109</v>
+        <v>0.4686272085300232</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1033199212597182</v>
+        <v>0.1508110597862213</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.5245220797697243</v>
+        <v>0.6499455454280252</v>
       </c>
       <c r="H6">
-        <v>0.6266800124445098</v>
+        <v>0.4269801639946564</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2719368832624767</v>
+        <v>0.7231114131433927</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.663980528770054</v>
+        <v>1.969130612012805</v>
       </c>
       <c r="C7">
-        <v>0.1613057218643235</v>
+        <v>0.4904672013744005</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1048395252383116</v>
+        <v>0.1577849923859631</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.5280047383007513</v>
+        <v>0.6721766053942133</v>
       </c>
       <c r="H7">
-        <v>0.6262185111219623</v>
+        <v>0.4341040732037129</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2825612851066523</v>
+        <v>0.7610651580156826</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7900145717982809</v>
+        <v>2.39690051196294</v>
       </c>
       <c r="C8">
-        <v>0.191644301228024</v>
+        <v>0.5873489473168547</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1117590789784515</v>
+        <v>0.1895762384260777</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813478</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.5449195876979758</v>
+        <v>0.777256537582204</v>
       </c>
       <c r="H8">
-        <v>0.625407194435553</v>
+        <v>0.4693563770942006</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3296729537806797</v>
+        <v>0.9307622123639803</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.037532426757934</v>
+        <v>3.253658600503229</v>
       </c>
       <c r="C9">
-        <v>0.2505823831147325</v>
+        <v>0.7804508271920554</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1261187909381078</v>
+        <v>0.2566490928085727</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.5837894590630697</v>
+        <v>1.01443022427982</v>
       </c>
       <c r="H9">
-        <v>0.6282770915465647</v>
+        <v>0.554989023960303</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4229167418350102</v>
+        <v>1.274679083821539</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.219648908285251</v>
+        <v>3.900509104342348</v>
       </c>
       <c r="C10">
-        <v>0.2935540916710124</v>
+        <v>0.9256525982324604</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1371726235063448</v>
+        <v>0.3099868634480032</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.6159571862790756</v>
+        <v>1.214159281992778</v>
       </c>
       <c r="H10">
-        <v>0.6331600600547347</v>
+        <v>0.6309745546787155</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4919898512155072</v>
+        <v>1.5376207726855</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.30256680139621</v>
+        <v>4.200222816992948</v>
       </c>
       <c r="C11">
-        <v>0.3130336421376683</v>
+        <v>0.9928033090275221</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1423155000526748</v>
+        <v>0.3354388576778362</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.6314043384397792</v>
+        <v>1.312229837141814</v>
       </c>
       <c r="H11">
-        <v>0.6359958531092218</v>
+        <v>0.6691561622989184</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5235461676762583</v>
+        <v>1.660367794811123</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.333976540296533</v>
+        <v>4.314661053380405</v>
       </c>
       <c r="C12">
-        <v>0.3204002944629565</v>
+        <v>1.018425189374028</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1442798002885368</v>
+        <v>0.3452774685507691</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.6373731307708681</v>
+        <v>1.350565589266978</v>
       </c>
       <c r="H12">
-        <v>0.6371590139954151</v>
+        <v>0.6842093394901099</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5355157631142191</v>
+        <v>1.70738609388232</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.327211419844843</v>
+        <v>4.289970039446814</v>
       </c>
       <c r="C13">
-        <v>0.318814190909336</v>
+        <v>1.012897840814816</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1438560001039306</v>
+        <v>0.3431491143475043</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.6360823030601921</v>
+        <v>1.34225319063674</v>
       </c>
       <c r="H13">
-        <v>0.6369045194509226</v>
+        <v>0.6809396240195724</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5329370025308435</v>
+        <v>1.697234496965166</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.305150687452112</v>
+        <v>4.209617836249947</v>
       </c>
       <c r="C14">
-        <v>0.3136398979400212</v>
+        <v>0.994907140339933</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.142476765414898</v>
+        <v>0.3362440834846581</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.6318929908645998</v>
+        <v>1.31535872022792</v>
       </c>
       <c r="H14">
-        <v>0.6360897517846809</v>
+        <v>0.6703822150963106</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5245305114288925</v>
+        <v>1.664224728232995</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.291639228541897</v>
+        <v>4.160527670499903</v>
       </c>
       <c r="C15">
-        <v>0.3104692145566901</v>
+        <v>0.9839136357245195</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.141634143210986</v>
+        <v>0.3320416122347254</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.6293425184433943</v>
+        <v>1.29904632448455</v>
       </c>
       <c r="H15">
-        <v>0.6356023415935397</v>
+        <v>0.6639953241294165</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5193839013291495</v>
+        <v>1.644077934639114</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.214231493830766</v>
+        <v>3.881045009041429</v>
       </c>
       <c r="C16">
-        <v>0.2922796803521521</v>
+        <v>0.921289157448939</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1368388568797911</v>
+        <v>0.3083498676591461</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.6149642486729761</v>
+        <v>1.207908597462591</v>
       </c>
       <c r="H16">
-        <v>0.6329871801982847</v>
+        <v>0.6285582155066436</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4899303268477979</v>
+        <v>1.529669119152416</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.166762943156016</v>
+        <v>3.711095752845949</v>
       </c>
       <c r="C17">
-        <v>0.2811034576815246</v>
+        <v>0.8831760113995131</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1339266603622633</v>
+        <v>0.2941399357416543</v>
       </c>
       <c r="F17">
-        <v>0.6400460337215605</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.6063537046602221</v>
+        <v>1.153954254502167</v>
       </c>
       <c r="H17">
-        <v>0.6315409222534925</v>
+        <v>0.6077948579447252</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4718963747417035</v>
+        <v>1.460343307714467</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.139467072265404</v>
+        <v>3.613848582393359</v>
       </c>
       <c r="C18">
-        <v>0.2746687412250992</v>
+        <v>0.861355268217892</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1322623918047938</v>
+        <v>0.2860766190010438</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.6014776196077776</v>
+        <v>1.123589228411845</v>
       </c>
       <c r="H18">
-        <v>0.6307668565822979</v>
+        <v>0.5961876116265614</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4615363593519817</v>
+        <v>1.420758095456023</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.130226320478641</v>
+        <v>3.581004281119192</v>
       </c>
       <c r="C19">
-        <v>0.2724889487816426</v>
+        <v>0.8539834688190524</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1317007347817096</v>
+        <v>0.2833645500218154</v>
       </c>
       <c r="F19">
-        <v>0.6191636801734006</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.599839726582502</v>
+        <v>1.113418316951254</v>
       </c>
       <c r="H19">
-        <v>0.6305146669944577</v>
+        <v>0.5923130626639477</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4580307901299108</v>
+        <v>1.407402446862875</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.171815348291204</v>
+        <v>3.729133985624571</v>
       </c>
       <c r="C20">
-        <v>0.2822938529699002</v>
+        <v>0.8872225328505294</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1342355535629309</v>
+        <v>0.2956410355618431</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.6072623809002664</v>
+        <v>1.15962754008612</v>
       </c>
       <c r="H20">
-        <v>0.6316888917013728</v>
+        <v>0.6099699414100428</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4738148079359945</v>
+        <v>1.467692644422669</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.311630172103492</v>
+        <v>4.233192263858143</v>
       </c>
       <c r="C21">
-        <v>0.3151599798203222</v>
+        <v>1.000185889920033</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1428814212061624</v>
+        <v>0.3382665604218076</v>
       </c>
       <c r="F21">
-        <v>0.7228739723492197</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.6331202378749765</v>
+        <v>1.323224356022081</v>
       </c>
       <c r="H21">
-        <v>0.6363266374823127</v>
+        <v>0.6734663983939413</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5269991570538082</v>
+        <v>1.673905188353359</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.403068725980802</v>
+        <v>4.568210079562164</v>
       </c>
       <c r="C22">
-        <v>0.3365826078656085</v>
+        <v>1.075161216950647</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1486301096337641</v>
+        <v>0.3673103198028684</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.6507162138709646</v>
+        <v>1.437221643707517</v>
       </c>
       <c r="H22">
-        <v>0.6398786661339102</v>
+        <v>0.7184732135023353</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5618744782308767</v>
+        <v>1.811853872503889</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.354260564600736</v>
+        <v>4.38883567787758</v>
       </c>
       <c r="C23">
-        <v>0.3251541812781227</v>
+        <v>1.035027445712558</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1455528326649826</v>
+        <v>0.3516897364493801</v>
       </c>
       <c r="F23">
-        <v>0.7472568307915566</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.6412604452479229</v>
+        <v>1.375672426820387</v>
       </c>
       <c r="H23">
-        <v>0.6379348980609052</v>
+        <v>0.694103829162998</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.543250039858421</v>
+        <v>1.737905785216824</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.16953117329308</v>
+        <v>3.720977482840624</v>
       </c>
       <c r="C24">
-        <v>0.2817557044122339</v>
+        <v>0.8853928196390655</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1340958718517982</v>
+        <v>0.2949620598435416</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902313</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.6068513373240592</v>
+        <v>1.157060622388968</v>
       </c>
       <c r="H24">
-        <v>0.6316218159643086</v>
+        <v>0.6089855641792496</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4729474595923477</v>
+        <v>1.464369171168926</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9705289090056795</v>
+        <v>3.019341772746316</v>
       </c>
       <c r="C25">
-        <v>0.2346967009590628</v>
+        <v>0.7277406099588006</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1221472341768859</v>
+        <v>0.2378847743633585</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347308</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.5726499605915194</v>
+        <v>0.9463097814973764</v>
       </c>
       <c r="H25">
-        <v>0.6270174702410714</v>
+        <v>0.5297660824970052</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3975954900624856</v>
+        <v>1.180113307575049</v>
       </c>
       <c r="N25">
         <v>0</v>
